--- a/StructureDefinition-CrossBorderMedicationAdministration.xlsx
+++ b/StructureDefinition-CrossBorderMedicationAdministration.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T16:33:31+00:00</t>
+    <t>2021-11-22T16:35:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CrossBorderMedicationAdministration.xlsx
+++ b/StructureDefinition-CrossBorderMedicationAdministration.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$44</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T16:35:05+00:00</t>
+    <t>2021-11-23T10:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -436,10 +439,10 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>RelatedMedication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/RelatedMedication}
+    <t>relatedMedication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/relatedMedication}
 </t>
   </si>
   <si>
@@ -1263,6 +1266,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1453,7 +1471,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="51.53125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.11328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.59375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1616,7 +1634,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -1728,7 +1746,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>83</v>
       </c>
@@ -1842,7 +1860,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>91</v>
       </c>
@@ -1954,7 +1972,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>97</v>
       </c>
@@ -2068,7 +2086,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>103</v>
       </c>
@@ -2182,7 +2200,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>112</v>
       </c>
@@ -2296,7 +2314,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>120</v>
       </c>
@@ -2410,7 +2428,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>128</v>
       </c>
@@ -2538,7 +2556,7 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -2634,7 +2652,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>141</v>
       </c>
@@ -2750,7 +2768,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>148</v>
       </c>
@@ -2864,7 +2882,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>156</v>
       </c>
@@ -2976,7 +2994,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>161</v>
       </c>
@@ -3088,7 +3106,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>167</v>
       </c>
@@ -3202,7 +3220,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>178</v>
       </c>
@@ -3314,7 +3332,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>188</v>
       </c>
@@ -3426,7 +3444,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>194</v>
       </c>
@@ -3540,7 +3558,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>205</v>
       </c>
@@ -3652,7 +3670,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>213</v>
       </c>
@@ -3764,7 +3782,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>221</v>
       </c>
@@ -3876,7 +3894,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>226</v>
       </c>
@@ -3988,7 +4006,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>234</v>
       </c>
@@ -4100,7 +4118,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>242</v>
       </c>
@@ -4212,7 +4230,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>247</v>
       </c>
@@ -4326,7 +4344,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>251</v>
       </c>
@@ -4442,7 +4460,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>256</v>
       </c>
@@ -4554,7 +4572,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>263</v>
       </c>
@@ -4666,7 +4684,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>269</v>
       </c>
@@ -4778,7 +4796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>277</v>
       </c>
@@ -4892,7 +4910,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>286</v>
       </c>
@@ -5006,7 +5024,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>294</v>
       </c>
@@ -5118,7 +5136,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>300</v>
       </c>
@@ -5230,7 +5248,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>306</v>
       </c>
@@ -5342,7 +5360,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>311</v>
       </c>
@@ -5454,7 +5472,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>312</v>
       </c>
@@ -5568,7 +5586,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>313</v>
       </c>
@@ -5684,7 +5702,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>314</v>
       </c>
@@ -5796,7 +5814,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>318</v>
       </c>
@@ -5910,7 +5928,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>326</v>
       </c>
@@ -6022,7 +6040,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>333</v>
       </c>
@@ -6136,7 +6154,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>341</v>
       </c>
@@ -6250,7 +6268,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>348</v>
       </c>
@@ -6364,7 +6382,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>355</v>
       </c>
@@ -6479,6 +6497,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN44">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI43">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>